--- a/optimised_file.xlsx
+++ b/optimised_file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="424">
   <si>
     <t>source</t>
   </si>
@@ -116,31 +116,34 @@
     <t>post source</t>
   </si>
   <si>
+    <t>rank</t>
+  </si>
+  <si>
     <t>TWITTER</t>
   </si>
   <si>
     <t>http://www.twitter.com</t>
   </si>
   <si>
-    <t>http://twitter.com/trotapop/statuses/1190078128590393350</t>
+    <t>http://twitter.com/carlogubi/statuses/1190108906783203328</t>
   </si>
   <si>
     <t>2019-10-31</t>
   </si>
   <si>
-    <t>21:28:31</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 21:28:31</t>
-  </si>
-  <si>
-    <t>trotapop</t>
-  </si>
-  <si>
-    <t>Max🇮🇹</t>
-  </si>
-  <si>
-    <t>http://twitter.com/trotapop</t>
+    <t>23:30:49</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 23:30:49</t>
+  </si>
+  <si>
+    <t>carlogubi</t>
+  </si>
+  <si>
+    <t>Carlo Gubitosa</t>
+  </si>
+  <si>
+    <t>http://twitter.com/carlogubi</t>
   </si>
   <si>
     <t>MALE</t>
@@ -152,12 +155,111 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>italia</t>
-  </si>
-  <si>
     <t>NEGATIVE</t>
   </si>
   <si>
+    <t>politics;religion;</t>
+  </si>
+  <si>
+    <t>Person.religious_figure;Person.world_leader;Person.religious_figure;</t>
+  </si>
+  <si>
+    <t>Vicario di Cristo;Papa;</t>
+  </si>
+  <si>
+    <t>Ai farisei xenofobi e ignoranti che predicano odio sventolando crocifissi che non capiscono e vangeli che non leggono, e costruiscono un Dio a misura delle loro psicosi e fobie dico solo questo: potete ... il Papa sono dalla parte dei migranti. https://t.co/lfT4X8KLOH...</t>
+  </si>
+  <si>
+    <t>Ai farisei xenofobi e ignoranti che predicano odio sventolando crocifissi che non capiscono e vangeli che non leggono, e costruiscono un Dio a misura delle loro psicosi e fobie dico solo questo: potete bestemmiare quanto volete, ma Cristo e il Papa sono dalla parte dei migranti. https://t.co/lfT4X8KLOH</t>
+  </si>
+  <si>
+    <t>Giornalista, scrittore, autore di fumetti, promotore delle edizioni no-profit mamma.am. Di mestiere faccio l'ingegnere. Politicamente orfano di rappresentanza.</t>
+  </si>
+  <si>
+    <t>IFTTT</t>
+  </si>
+  <si>
+    <t>http://twitter.com/carlogubi/statuses/1190063497041924097</t>
+  </si>
+  <si>
+    <t>20:30:22</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:30:22</t>
+  </si>
+  <si>
+    <t>Queste si chiamano "scienze sociali". Ti dicono che la vecchia Europa ha bisogno di migranti per evitare il collasso economico, proprio come la scienza medica ti dice che i bambini hanno bisogno di vaccini per evitare l'esplosione di epidemie...</t>
+  </si>
+  <si>
+    <t>Queste si chiamano "scienze sociali". Ti dicono che la vecchia Europa ha bisogno di migranti per evitare il collasso economico, proprio come la scienza medica ti dice che i bambini hanno bisogno di vaccini per evitare l'esplosione di epidemie. L'ignoranza stronca vite umane. https://t.co/l2nZF1ROuO</t>
+  </si>
+  <si>
+    <t>Queste si chiamano "scienze sociali". . L'ignoranza stronca vite umane. https://t.co/l2nZF1ROuO</t>
+  </si>
+  <si>
+    <t>http://twitter.com/nelloscavo/statuses/1190060630247690240</t>
+  </si>
+  <si>
+    <t>20:18:59</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:18:59</t>
+  </si>
+  <si>
+    <t>nelloscavo</t>
+  </si>
+  <si>
+    <t>nello scavo</t>
+  </si>
+  <si>
+    <t>http://twitter.com/nelloscavo</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Location.region;</t>
+  </si>
+  <si>
+    <t>Sardegna;</t>
+  </si>
+  <si>
+    <t>RT @AngiKappa: #eccidio #migranti L'orrore e la vergogna. Li hanno trovati a poche miglia dalla Sardegna.I corpi di 2 africani in decomposizione su un gommone senza motore Probabile fossero di più:gli altri morti prima.Succede: chi...</t>
+  </si>
+  <si>
+    <t>RT @AngiKappa: #eccidio #migranti L'orrore e la vergogna. Li hanno trovati a poche miglia dalla Sardegna.I corpi di 2 africani in decomposizione su un gommone senza motore Probabile fossero di più:gli altri morti prima.Succede: chi sopravvive getta in mare i cadaveri. https://t.co/o9t34iam1E</t>
+  </si>
+  <si>
+    <t>RT @AngiKappa: #eccidio #migranti L'orrore e la vergogna.</t>
+  </si>
+  <si>
+    <t>Avvenire journalist. Author (16 languages-70 countries). Premio Libertà dell'Informazione 2018. @RSF_inter member. Made in Sicily</t>
+  </si>
+  <si>
+    <t>Twitter for Android</t>
+  </si>
+  <si>
+    <t>http://twitter.com/Marinotoma/statuses/1190096547935137793</t>
+  </si>
+  <si>
+    <t>22:41:42</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 22:41:42</t>
+  </si>
+  <si>
+    <t>Marinotoma</t>
+  </si>
+  <si>
+    <t>Marino Tomà 🇮🇹</t>
+  </si>
+  <si>
+    <t>http://twitter.com/marinotoma</t>
+  </si>
+  <si>
+    <t>Liguria (Italy)</t>
+  </si>
+  <si>
     <t>politics;</t>
   </si>
   <si>
@@ -176,12 +278,84 @@
     <t>RT @Drittorovescio_: Ecco il nostro assalto al Ministro dell'Interno tedesco, che prima evita di rispondere ma poi è costretto. . Lapidario: "“Rispetteremo gli accordi presi solo quando avrò la certezza che i migranti non costituiscano una minaccia per la nostra sicurezza” Ora a #DrittoeRovescio https://t.co/kVHlvdJDhC</t>
   </si>
   <si>
-    <t>ATTENZIONE : CREO DIPENDENZA.</t>
+    <t>Già Collaboratore Parlamentare Senato della Repubblica Italiana. Reetweets are not Endorsement</t>
   </si>
   <si>
     <t>Twitter for iPhone</t>
   </si>
   <si>
+    <t>http://twitter.com/LESOVICI/statuses/1190096934981308417</t>
+  </si>
+  <si>
+    <t>22:43:14</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 22:43:14</t>
+  </si>
+  <si>
+    <t>LESOVICI</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>http://twitter.com/lesovici</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>lombardia</t>
+  </si>
+  <si>
+    <t>milano</t>
+  </si>
+  <si>
+    <t>Milano, Lombardia</t>
+  </si>
+  <si>
+    <t>arts;politics;</t>
+  </si>
+  <si>
+    <t>Person.government_employee;Person.poet;</t>
+  </si>
+  <si>
+    <t>Il Principe;Le opere e i giorni;</t>
+  </si>
+  <si>
+    <t>RT @rottwi59: @stanzaselvaggia I vostri beniamini al governo hanno lasciato 11 giorni i migranti sulla #OceanViking mantenendo un profilo bassissimo in attesa delle elezioni Umbre. Il giorno dopo li fanno sbarcare. Se fosse stato Salvini avreste...</t>
+  </si>
+  <si>
+    <t>RT @rottwi59: @stanzaselvaggia I vostri beniamini al governo hanno lasciato 11 giorni i migranti sulla #OceanViking mantenendo un profilo bassissimo in attesa delle elezioni Umbre. Il giorno dopo li fanno sbarcare. Se fosse stato Salvini avreste fatto sit in di protesta e titoloni sui giornaloni #MainStream https://t.co/1K46wqqGES</t>
+  </si>
+  <si>
+    <t>RT @rottwi59: @stanzaselvaggia I vostri beniamini al governo hanno lasciato 11 giorni i migranti sulla #OceanViking mantenendo un profilo bassissimo in attesa delle elezioni Umbre. . Il giorno dopo li fanno sbarcare. . Se fosse stato Salvini avreste fatto sit in di protesta e titoloni sui giornaloni #MainStream https://t.co/1K46wqqGES</t>
+  </si>
+  <si>
+    <t>Twitter Web App</t>
+  </si>
+  <si>
+    <t>http://twitter.com/giorgio12860698/statuses/1190090881082089474</t>
+  </si>
+  <si>
+    <t>22:19:11</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 22:19:11</t>
+  </si>
+  <si>
+    <t>giorgio12860698</t>
+  </si>
+  <si>
+    <t>GIORGIO🇮🇹</t>
+  </si>
+  <si>
+    <t>http://twitter.com/giorgio12860698</t>
+  </si>
+  <si>
+    <t>#italiano #sovranista #noIslam #noeuro #difesadellapatria #destra</t>
+  </si>
+  <si>
     <t>http://twitter.com/moriggi/statuses/1190076544154324994</t>
   </si>
   <si>
@@ -200,9 +374,6 @@
     <t>http://twitter.com/moriggi</t>
   </si>
   <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
     <t>Lombardia, Italia</t>
   </si>
   <si>
@@ -224,22 +395,551 @@
     <t>#salvininonmollare</t>
   </si>
   <si>
-    <t>http://twitter.com/CkRaffaella/statuses/1190075354574131200</t>
-  </si>
-  <si>
-    <t>21:17:29</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 21:17:29</t>
-  </si>
-  <si>
-    <t>CkRaffaella</t>
-  </si>
-  <si>
-    <t>RaffaellaCK</t>
-  </si>
-  <si>
-    <t>http://twitter.com/ckraffaella</t>
+    <t>http://twitter.com/ZoldanDaniele/statuses/1190065706894864384</t>
+  </si>
+  <si>
+    <t>20:39:09</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:39:09</t>
+  </si>
+  <si>
+    <t>ZoldanDaniele</t>
+  </si>
+  <si>
+    <t>daniele zoldan</t>
+  </si>
+  <si>
+    <t>http://twitter.com/zoldandaniele</t>
+  </si>
+  <si>
+    <t>veneto</t>
+  </si>
+  <si>
+    <t>venezia</t>
+  </si>
+  <si>
+    <t>Friuli-Venezia Giulia, Italia</t>
+  </si>
+  <si>
+    <t>Friulano, Libero Sovranista, a destra ma intellettualmente libero, appassionato del buon calcio e della buona tavola.🇮🇹</t>
+  </si>
+  <si>
+    <t>http://twitter.com/MariaRitaDAdamo/statuses/1190063538108321794</t>
+  </si>
+  <si>
+    <t>20:30:32</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:30:32</t>
+  </si>
+  <si>
+    <t>MariaRitaDAdamo</t>
+  </si>
+  <si>
+    <t>Maria Rita 🇮🇹</t>
+  </si>
+  <si>
+    <t>http://twitter.com/mariaritadadamo</t>
+  </si>
+  <si>
+    <t>Lazio, Italia</t>
+  </si>
+  <si>
+    <t>Sovranista.
+#nontollerolasinistra
+Non parlo in DM</t>
+  </si>
+  <si>
+    <t>http://twitter.com/voltes48/statuses/1190061363151945729</t>
+  </si>
+  <si>
+    <t>20:21:53</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:21:53</t>
+  </si>
+  <si>
+    <t>voltes48</t>
+  </si>
+  <si>
+    <t>Gilbert 🇮🇹subalterno</t>
+  </si>
+  <si>
+    <t>http://twitter.com/voltes48</t>
+  </si>
+  <si>
+    <t>politics;arts;</t>
+  </si>
+  <si>
+    <t>Person.government_employee;Person.author;</t>
+  </si>
+  <si>
+    <t>Che Guevara;</t>
+  </si>
+  <si>
+    <t>RT @b_ludvig: Pensione di invalidità 285.66€ al mese. Per ogni migrante clandestino più di 1000€al mese. Che dite siamo un paese di merda?</t>
+  </si>
+  <si>
+    <t>RT @b_ludvig: Pensione di invalidità 285.66€ al mese. . Per ogni migrante clandestino più di 1000€al mese. . Che dite siamo un paese di merda?</t>
+  </si>
+  <si>
+    <t>L'uomo, nato di donna, breve di giorni e sazio di inquietudine, come un fiore spunta e avvizzisce, fugge come l'ombra e mai si ferma. (Giobbe 14-1)</t>
+  </si>
+  <si>
+    <t>http://twitter.com/giorgio12860698/statuses/1190096819545497600</t>
+  </si>
+  <si>
+    <t>22:42:47</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 22:42:47</t>
+  </si>
+  <si>
+    <t>sports;</t>
+  </si>
+  <si>
+    <t>Person.pro_athlete;Person.sports_coach;</t>
+  </si>
+  <si>
+    <t>Alexander Merkel;Antonio Conte;</t>
+  </si>
+  <si>
+    <t>RT @Rassegne_Italia: Conte si piega alla Merkel, l’accordo choc: “2 voli charter al mese per trasferire i migranti in Italia”. Ira di Salvini: https://t.co/rISpd7OBAN</t>
+  </si>
+  <si>
+    <t>RT @Rassegne_Italia: Conte si piega alla Merkel, l’accordo choc: “2 voli charter al mese per trasferire i migranti in Italia”. . Ira di Salvini: https://t.co/rISpd7OBAN</t>
+  </si>
+  <si>
+    <t>http://twitter.com/Zamberlett/statuses/1190069061432086528</t>
+  </si>
+  <si>
+    <t>20:52:29</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:52:29</t>
+  </si>
+  <si>
+    <t>Zamberlett</t>
+  </si>
+  <si>
+    <t>Maria Zamberletti</t>
+  </si>
+  <si>
+    <t>http://twitter.com/zamberlett</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>Sono milanese, faccio la consulente. Amo la musica, l'arte, la buona compagnia</t>
+  </si>
+  <si>
+    <t>http://twitter.com/MariaRitaDAdamo/statuses/1190065459074342913</t>
+  </si>
+  <si>
+    <t>20:38:10</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:38:10</t>
+  </si>
+  <si>
+    <t>arts;entertainment;</t>
+  </si>
+  <si>
+    <t>Person.artist;Person.director;</t>
+  </si>
+  <si>
+    <t>La fortuna di essere donna;Non ti muovere (film);</t>
+  </si>
+  <si>
+    <t>RT @ImolaOggi: Dlin dlon, comunicazione di servizio antirazzista. Non partecipa al blitz contro la polizia: migrante bastonato dai centri sociali, pestata anche una donna incinta. La commissione contro l'#odio che fa? Dorme? https://t.co/XDDvZORK6B</t>
+  </si>
+  <si>
+    <t>RT @ImolaOggi: Dlin dlon, comunicazione di servizio antirazzista. . Non partecipa al blitz contro la polizia: migrante bastonato dai centri sociali, pestata anche una donna incinta. . La commissione contro l'#odio che fa?</t>
+  </si>
+  <si>
+    <t>http://twitter.com/giovannella58/statuses/1190061913000087552</t>
+  </si>
+  <si>
+    <t>20:24:04</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:24:04</t>
+  </si>
+  <si>
+    <t>giovannella58</t>
+  </si>
+  <si>
+    <t>Giovannella</t>
+  </si>
+  <si>
+    <t>http://twitter.com/giovannella58</t>
+  </si>
+  <si>
+    <t>entertainment;arts;</t>
+  </si>
+  <si>
+    <t>pigra,quasi accidiosa, il girone di Dante già mi aspetta. cuoro e retwetto sempre perchè trovo già scritto quello che vorrei scrivere. dx, inter</t>
+  </si>
+  <si>
+    <t>http://twitter.com/LESOVICI/statuses/1190102184660221953</t>
+  </si>
+  <si>
+    <t>23:04:06</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 23:04:06</t>
+  </si>
+  <si>
+    <t>RT @AforizmyFraszky: @stanzaselvaggia "Le noccioline ai migranti" è frase di una volgarità senza pari, che deforma i termini del dibattito. Mi risulta che Salvini... ai clandestini (non ai "migranti" tout court). Il Suo è solo uno sbocco...</t>
+  </si>
+  <si>
+    <t>RT @AforizmyFraszky: @stanzaselvaggia "Le noccioline ai migranti" è frase di una volgarità senza pari, che deforma i termini del dibattito. Mi risulta che Salvini non ha mai parlato di noccioline a chicchessia, e ha chiuso le frontiere ai clandestini (non ai "migranti" tout court). Il Suo è solo uno sbocco di bile.</t>
+  </si>
+  <si>
+    <t>RT @AforizmyFraszky: @stanzaselvaggia "Le noccioline ai migranti" è frase di una volgarità senza pari, che deforma i termini del dibattito. . Mi risulta che Salvini non ha mai parlato di noccioline a chicchessia, e ha chiuso le frontiere ai clandestini (non ai "migranti" tout court). . Il Suo è solo uno sbocco di bile.</t>
+  </si>
+  <si>
+    <t>http://twitter.com/PivaEdoardo/statuses/1190101604286050304</t>
+  </si>
+  <si>
+    <t>23:01:48</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 23:01:48</t>
+  </si>
+  <si>
+    <t>PivaEdoardo</t>
+  </si>
+  <si>
+    <t>Edoardo Piva🚩🇮🇹🚩</t>
+  </si>
+  <si>
+    <t>http://twitter.com/pivaedoardo</t>
+  </si>
+  <si>
+    <t>AMO e NON AMO CHI NON AMA
+“libertà nello Stato”, gli obblighi che ciascuno ha nei confronti della collettività
+Bella Ciao -http://youtu.be/4CI3lhyNKfo</t>
+  </si>
+  <si>
+    <t>http://twitter.com/LESOVICI/statuses/1190099699820367873</t>
+  </si>
+  <si>
+    <t>22:54:14</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 22:54:14</t>
+  </si>
+  <si>
+    <t>RT @StellaC39664453: @stanzaselvaggia Ai migranti diamo caporalato, malavita, centri dove si specula sulla loro pelle, migliaia di minori scomparsi ecc.. Forse non esistono i buoni, nemmeno tra quelli che gridano tanto di amare il prossimo, se no</t>
+  </si>
+  <si>
+    <t>RT @StellaC39664453: @stanzaselvaggia Ai migranti diamo caporalato, malavita, centri dove si specula sulla loro pelle, migliaia di minori scomparsi ecc.. Forse non esistono i buoni, nemmeno tra quelli che gridano tanto di amare il prossimo, se no sarebbe andata in modo diverso.</t>
+  </si>
+  <si>
+    <t>RT @StellaC39664453: @stanzaselvaggia Ai migranti diamo caporalato, malavita, centri dove si specula sulla loro pelle, migliaia di minori scomparsi ecc.. . Forse non esistono i buoni, nemmeno tra quelli che gridano tanto di amare il prossimo, se no sarebbe andata in modo diverso.</t>
+  </si>
+  <si>
+    <t>http://twitter.com/LESOVICI/statuses/1190098808023244800</t>
+  </si>
+  <si>
+    <t>22:50:41</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 22:50:41</t>
+  </si>
+  <si>
+    <t>RT @FrancyMasse: @stanzaselvaggia Mi sa che sono tanti ad aver sbagliato porta, e saranno ancora di pù nel tempo. D. ma hai migranti piacciono le noccioline?</t>
+  </si>
+  <si>
+    <t>RT @FrancyMasse: @stanzaselvaggia Mi sa che sono tanti ad aver sbagliato porta, e saranno ancora di pù nel tempo. . D. ma hai migranti piacciono le noccioline?</t>
+  </si>
+  <si>
+    <t>http://twitter.com/LESOVICI/statuses/1190097988405870593</t>
+  </si>
+  <si>
+    <t>22:47:26</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 22:47:26</t>
+  </si>
+  <si>
+    <t>RT @LoGnorante: @stanzaselvaggia @LLartigiano Sono clandestini I Migranti vengono qua con documenti regolari, requisiti accertati, cercano e trovano lavoro. Sono Clandestini. Come te nel mondo dello spettacolo. Clandestini. Da respingere come fanno tutti i Paesi Civili...</t>
+  </si>
+  <si>
+    <t>RT @LoGnorante: @stanzaselvaggia @LLartigiano Sono clandestini I Migranti vengono qua con documenti regolari, requisiti accertati, cercano e trovano lavoro. Sono Clandestini. Come te nel mondo dello spettacolo. Clandestini. Da respingere come fanno tutti i Paesi Civili, in primis i tuoi amici franco-tedeschi Falsa</t>
+  </si>
+  <si>
+    <t>RT @LoGnorante: @stanzaselvaggia @LLartigiano Sono clandestini I Migranti vengono qua con documenti regolari, requisiti accertati, cercano e trovano lavoro. . Come te nel mondo dello spettacolo. . Da respingere come fanno tutti i Paesi Civili, in primis i tuoi amici franco-tedeschi Falsa</t>
+  </si>
+  <si>
+    <t>http://twitter.com/PivaEdoardo/statuses/1190097721836916738</t>
+  </si>
+  <si>
+    <t>22:46:22</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 22:46:22</t>
+  </si>
+  <si>
+    <t>RT @MarioScelzo1: Non festeggio Halloween, non mi rappresenta e non mi trasmette alcuna sensazione. Ciò detto, gradirei che i cattolici che fanno crociate contro Halloween spendessero il loro tempo ad aiutare i poveri serven... migranti come impongono i Vangeli etc......</t>
+  </si>
+  <si>
+    <t>RT @MarioScelzo1: Non festeggio Halloween, non mi rappresenta e non mi trasmette alcuna sensazione. Ciò detto, gradirei che i cattolici che fanno crociate contro Halloween spendessero il loro tempo ad aiutare i poveri servendo nelle mense, accogliendo i migranti come impongono i Vangeli etc...</t>
+  </si>
+  <si>
+    <t>RT @MarioScelzo1: Non festeggio Halloween, non mi rappresenta e non mi trasmette alcuna sensazione. . Ciò detto, gradirei che i cattolici che fanno crociate contro Halloween spendessero il loro tempo ad aiutare i poveri servendo nelle mense, accogliendo i migranti come impongono i Vangeli etc...</t>
+  </si>
+  <si>
+    <t>http://twitter.com/LESOVICI/statuses/1190097006926159872</t>
+  </si>
+  <si>
+    <t>22:43:32</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 22:43:32</t>
+  </si>
+  <si>
+    <t>RT @ros_aria7: @stanzaselvaggia @campagnoli85 Anche noi ci siamo rotti i coglioni di personaggi come te, che usano i migranti per gettare fango su Salvini! Quando scenderai dal piedistallo, forse ti renderai conto che le idee, le...</t>
+  </si>
+  <si>
+    <t>RT @ros_aria7: @stanzaselvaggia @campagnoli85 Anche noi ci siamo rotti i coglioni di personaggi come te, che usano i migranti per gettare fango su Salvini! Quando scenderai dal piedistallo, forse ti renderai conto che le idee, le proposte, e il modus operanti della sx non ha nulla a che vedere ne’ con la sx ne con il popolo</t>
+  </si>
+  <si>
+    <t>RT @ros_aria7: @stanzaselvaggia @campagnoli85 Anche noi ci siamo rotti i coglioni di personaggi come te, che usano i migranti per gettare fango su Salvini! . Quando scenderai dal piedistallo, forse ti renderai conto che le idee, le proposte, e il modus operanti della sx non ha nulla a che vedere ne’ con la sx ne con il popolo</t>
+  </si>
+  <si>
+    <t>http://twitter.com/Noviolenzadonne/statuses/1190082808812916736</t>
+  </si>
+  <si>
+    <t>21:47:06</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 21:47:06</t>
+  </si>
+  <si>
+    <t>Noviolenzadonne</t>
+  </si>
+  <si>
+    <t>Noviolenzasulledonne</t>
+  </si>
+  <si>
+    <t>http://twitter.com/noviolenzadonne</t>
+  </si>
+  <si>
+    <t>Product.grocery;</t>
+  </si>
+  <si>
+    <t>Giustizia;</t>
+  </si>
+  <si>
+    <t>RT @AngiKappa: Truffe nella gestione dei centri di accoglienza per #migranti richiedenti asilo. Rinviate a giudizio 36 persone nel beneventano. Tra loro, amministratori e gestori dei centri, un funzionario di prefettura, un ex poliziotto, un carabiniere, un</t>
+  </si>
+  <si>
+    <t>RT @AngiKappa: Truffe nella gestione dei centri di accoglienza per #migranti richiedenti asilo. Rinviate a giudizio 36 persone nel beneventano. Tra loro, amministratori e gestori dei centri, un funzionario di prefettura, un ex poliziotto, un carabiniere, un dipendente del Min Giustizia.</t>
+  </si>
+  <si>
+    <t>RT @AngiKappa: Truffe nella gestione dei centri di accoglienza per #migranti richiedenti asilo. . Rinviate a giudizio 36 persone nel beneventano. . Tra loro, amministratori e gestori dei centri, un funzionario di prefettura, un ex poliziotto, un carabiniere, un dipendente del Min Giustizia.</t>
+  </si>
+  <si>
+    <t>Internationalist, anti racist, anti zionist, anti violence, anti imperialist, anti  capitalist, anarcho-communist, radical/intersectional feminist blog account</t>
+  </si>
+  <si>
+    <t>http://twitter.com/ElenaCaracozza/statuses/1190076713235038209</t>
+  </si>
+  <si>
+    <t>21:25:47</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 21:22:53</t>
+  </si>
+  <si>
+    <t>ElenaCaracozza</t>
+  </si>
+  <si>
+    <t>Elena Caracozza #Staffetta #SinistraIT</t>
+  </si>
+  <si>
+    <t>http://twitter.com/elenacaracozza</t>
+  </si>
+  <si>
+    <t>attivista di #INSIEMEINRETE nata nel 2018 x contrastare #Hatespeech, #FakeNews, #cyberbullismo #Revengeporn e x la cittadinanza digitale consapevole</t>
+  </si>
+  <si>
+    <t>http://twitter.com/freechef/statuses/1190071450922864641</t>
+  </si>
+  <si>
+    <t>21:01:59</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 21:01:59</t>
+  </si>
+  <si>
+    <t>freechef</t>
+  </si>
+  <si>
+    <t>Marco Chiappa</t>
+  </si>
+  <si>
+    <t>http://twitter.com/freechef</t>
+  </si>
+  <si>
+    <t>milan</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Location.city;</t>
+  </si>
+  <si>
+    <t>Fiumicino;</t>
+  </si>
+  <si>
+    <t>RT @caritas_milano: L'accoglienza in risposta all'#odio. Arrivati altri 54 #rifugiati a Fiumicino grazie ai #CorridoiUmanitari Uniche vie sicure per combattere i trafficanti di morte. https://t.co/4sYbjcbF95</t>
+  </si>
+  <si>
+    <t>RT @caritas_milano: L'accoglienza in risposta all'#odio. . Arrivati altri 54 #rifugiati a Fiumicino grazie ai #CorridoiUmanitari Uniche vie sicure per combattere i trafficanti di morte. https://t.co/4sYbjcbF95</t>
+  </si>
+  <si>
+    <t>Nato a Milano il 14 Ottobre 1980. Vicepresidente ComitatoPhD, comunicatologo, giornalista, filmmaker, sommelier e molto altro. Insomma un'anima in pena!</t>
+  </si>
+  <si>
+    <t>http://twitter.com/Su_Pirresu/statuses/1190069642280218624</t>
+  </si>
+  <si>
+    <t>20:54:47</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:54:47</t>
+  </si>
+  <si>
+    <t>Su_Pirresu</t>
+  </si>
+  <si>
+    <t>Francesco</t>
+  </si>
+  <si>
+    <t>http://twitter.com/su_pirresu</t>
+  </si>
+  <si>
+    <t>sardegna</t>
+  </si>
+  <si>
+    <t>cagliari</t>
+  </si>
+  <si>
+    <t>Cagliari, Italia</t>
+  </si>
+  <si>
+    <t>Org.nonprofit;</t>
+  </si>
+  <si>
+    <t>ANSA;</t>
+  </si>
+  <si>
+    <t>RT @AnsaSardegna: Corpi di due migranti in mare Sardegna. Erano su un barchino senza motore alla deriva da diversi giorni #ANSA https://t.co/svwqjF0FMm</t>
+  </si>
+  <si>
+    <t>RT @AnsaSardegna: Corpi di due migranti in mare Sardegna. . Erano su un barchino senza motore alla deriva da diversi giorni #ANSA https://t.co/svwqjF0FMm</t>
+  </si>
+  <si>
+    <t>Cagliaritano in Sardegna, Sardo in Italia, Italiano nel mondo. Tra il serio e il faceto. Cervello libero in movimento</t>
+  </si>
+  <si>
+    <t>http://twitter.com/giovannella58/statuses/1190063651497152513</t>
+  </si>
+  <si>
+    <t>20:30:59</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:30:59</t>
+  </si>
+  <si>
+    <t>Location.country;</t>
+  </si>
+  <si>
+    <t>Italia;</t>
+  </si>
+  <si>
+    <t>RT @ImolaOggi: La Merkel dà ordini, l'inciucio Pd-M5s obbedisce. Ogni mese la Germania invierà "migranti" in Italia con voli charter. Salvini: "Italia schiava e umiliata" https://t.co/ls45yTAdqE</t>
+  </si>
+  <si>
+    <t>RT @ImolaOggi: La Merkel dà ordini, l'inciucio Pd-M5s obbedisce. . Ogni mese la Germania invierà "migranti" in Italia con voli charter. . Salvini: "Italia schiava e umiliata" https://t.co/ls45yTAdqE</t>
+  </si>
+  <si>
+    <t>http://twitter.com/MariaRitaDAdamo/statuses/1190062444921675776</t>
+  </si>
+  <si>
+    <t>20:26:11</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:26:11</t>
+  </si>
+  <si>
+    <t>RT @CesareSacchetti: Immaginate dei migranti che vengono pestati a sangue da un centro sociale di destra. Immaginate poi gli stessi migranti ridotti in schiavitù. Tutto questo lo ha fatto un centro sociale di sinistra. I media non dicono</t>
+  </si>
+  <si>
+    <t>RT @CesareSacchetti: Immaginate dei migranti che vengono pestati a sangue da un centro sociale di destra. Immaginate poi gli stessi migranti ridotti in schiavitù. Tutto questo lo ha fatto un centro sociale di sinistra. I media non dicono nulla sul vero razzismo della sinistra. https://t.co/zJknKpC95f</t>
+  </si>
+  <si>
+    <t>RT @CesareSacchetti: Immaginate dei migranti che vengono pestati a sangue da un centro sociale di destra. . Immaginate poi gli stessi migranti ridotti in schiavitù. . I media non dicono nulla sul vero razzismo della sinistra. https://t.co/zJknKpC95f</t>
+  </si>
+  <si>
+    <t>http://twitter.com/godzillante/statuses/1190077440972017664</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 21:25:47</t>
+  </si>
+  <si>
+    <t>godzillante</t>
+  </si>
+  <si>
+    <t>Caco Vaniglia #facciamorete</t>
+  </si>
+  <si>
+    <t>http://twitter.com/godzillante</t>
+  </si>
+  <si>
+    <t>Calabria, Italy</t>
+  </si>
+  <si>
+    <t>law;</t>
+  </si>
+  <si>
+    <t>Event.crime;</t>
+  </si>
+  <si>
+    <t>Furto;</t>
+  </si>
+  <si>
+    <t>RT @davcarretta: La "invasione" di migranti ha aumentato la criminalità in Italia? I dati Eurostat prima e dopo impennata "sbarchi" raccontano un'altra storia. Omicidi 2013: 506 2017: 371 Furti 2013: 1.303.355 2017: 1.069.854 Aggressioni: 2013: 66.317 2017: 65.775</t>
+  </si>
+  <si>
+    <t>RT @davcarretta: La "invasione" di migranti ha aumentato la criminalità in Italia? . I dati Eurostat prima e dopo impennata "sbarchi" raccontano un'altra storia. . Omicidi 2013: 506 2017: 371 Furti 2013: 1.303.355 2017: 1.069.854 Aggressioni: 2013: 66.317 2017: 65.775</t>
+  </si>
+  <si>
+    <t>Voi siete voi e io non sono un cazzo</t>
+  </si>
+  <si>
+    <t>http://twitter.com/iperwild/statuses/1190110172821295104</t>
+  </si>
+  <si>
+    <t>23:35:51</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 23:35:51</t>
+  </si>
+  <si>
+    <t>iperwild</t>
+  </si>
+  <si>
+    <t>stormy weather</t>
+  </si>
+  <si>
+    <t>http://twitter.com/iperwild</t>
   </si>
   <si>
     <t>lazio</t>
@@ -251,22 +951,43 @@
     <t>Roma, Lazio</t>
   </si>
   <si>
-    <t>Org.newspaper;Location.city;</t>
-  </si>
-  <si>
-    <t>Avvenire;Tripoli;</t>
-  </si>
-  <si>
-    <t>QT @Avvenire_Nei: RT @senzasinistra: Solo sull'Avvenire, spaventa la noncuranza con cui #5s #pd #Leu e #gruppoRenzi danno il loro consenso al rinnovo degli #… ; Accordo Italia-Libia sui migranti: il mistero dei 5 miliardi (per...</t>
-  </si>
-  <si>
-    <t>QT @Avvenire_Nei: RT @senzasinistra: Solo sull'Avvenire, spaventa la noncuranza con cui #5s #pd #Leu e #gruppoRenzi danno il loro consenso al rinnovo degli #… ; Accordo Italia-Libia sui migranti: il mistero dei 5 miliardi (per Tripoli) https://t.co/0KglQdpGB1 (di @nelloscavo</t>
-  </si>
-  <si>
-    <t>Pure Einstein era un rifugiato.</t>
-  </si>
-  <si>
-    <t>Twitter for Android</t>
+    <t>http://twitter.com/La_LadyGabry/statuses/1190103181725966336</t>
+  </si>
+  <si>
+    <t>23:08:04</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 23:08:04</t>
+  </si>
+  <si>
+    <t>La_LadyGabry</t>
+  </si>
+  <si>
+    <t>Gabriella</t>
+  </si>
+  <si>
+    <t>http://twitter.com/la_ladygabry</t>
+  </si>
+  <si>
+    <t>http://twitter.com/Tony_studi/statuses/1190078993409695744</t>
+  </si>
+  <si>
+    <t>21:31:57</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 21:31:57</t>
+  </si>
+  <si>
+    <t>Tony_studi</t>
+  </si>
+  <si>
+    <t>Tony 🇮🇹</t>
+  </si>
+  <si>
+    <t>http://twitter.com/tony_studi</t>
+  </si>
+  <si>
+    <t>NO IMMIGRAZIONE - NO ISLAM - ANTICOMUNISTA - BLOCCO NAVALE SUBITO</t>
   </si>
   <si>
     <t>http://twitter.com/SserCarlo81/statuses/1190075048415117313</t>
@@ -285,15 +1006,6 @@
   </si>
   <si>
     <t>http://twitter.com/ssercarlo81</t>
-  </si>
-  <si>
-    <t>lombardia</t>
-  </si>
-  <si>
-    <t>milano</t>
-  </si>
-  <si>
-    <t>Milano</t>
   </si>
   <si>
     <t>Person.journalist;Person.politician;</t>
@@ -310,332 +1022,38 @@
 We never listen enough never face the truth Then like a passing song❤️is here and then it's gone</t>
   </si>
   <si>
-    <t>http://twitter.com/dariosci1/statuses/1190073305493057539</t>
-  </si>
-  <si>
-    <t>21:09:21</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 21:09:21</t>
-  </si>
-  <si>
-    <t>dariosci1</t>
-  </si>
-  <si>
-    <t>dario scianetti</t>
-  </si>
-  <si>
-    <t>http://twitter.com/dariosci1</t>
-  </si>
-  <si>
-    <t>Location.city;</t>
-  </si>
-  <si>
-    <t>Fiumicino;</t>
-  </si>
-  <si>
-    <t>RT @caritas_milano: L'accoglienza in risposta all'#odio. Arrivati altri 54 #rifugiati a Fiumicino grazie ai #CorridoiUmanitari Uniche vie sicure per combattere i trafficanti di morte. https://t.co/4sYbjcbF95</t>
-  </si>
-  <si>
-    <t>RT @caritas_milano: L'accoglienza in risposta all'#odio. . Arrivati altri 54 #rifugiati a Fiumicino grazie ai #CorridoiUmanitari Uniche vie sicure per combattere i trafficanti di morte. https://t.co/4sYbjcbF95</t>
-  </si>
-  <si>
-    <t>Archeologo reflexmunito, editor a tempo pieno ... un po' a nord un po' a sud.
-Vivo in pratica a L'ERMA di BRETSCHNEIDER</t>
-  </si>
-  <si>
-    <t>http://twitter.com/freechef/statuses/1190071450922864641</t>
-  </si>
-  <si>
-    <t>21:01:59</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 21:01:59</t>
-  </si>
-  <si>
-    <t>freechef</t>
-  </si>
-  <si>
-    <t>Marco Chiappa</t>
-  </si>
-  <si>
-    <t>http://twitter.com/freechef</t>
-  </si>
-  <si>
-    <t>milan</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Nato a Milano il 14 Ottobre 1980. Vicepresidente ComitatoPhD, comunicatologo, giornalista, filmmaker, sommelier e molto altro. Insomma un'anima in pena!</t>
-  </si>
-  <si>
-    <t>http://twitter.com/Su_Pirresu/statuses/1190069642280218624</t>
-  </si>
-  <si>
-    <t>20:54:47</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 20:54:47</t>
-  </si>
-  <si>
-    <t>Su_Pirresu</t>
-  </si>
-  <si>
-    <t>Francesco</t>
-  </si>
-  <si>
-    <t>http://twitter.com/su_pirresu</t>
-  </si>
-  <si>
-    <t>sardegna</t>
-  </si>
-  <si>
-    <t>cagliari</t>
-  </si>
-  <si>
-    <t>Cagliari, Italia</t>
-  </si>
-  <si>
-    <t>Org.nonprofit;</t>
-  </si>
-  <si>
-    <t>ANSA;</t>
-  </si>
-  <si>
-    <t>RT @AnsaSardegna: Corpi di due migranti in mare Sardegna. Erano su un barchino senza motore alla deriva da diversi giorni #ANSA https://t.co/svwqjF0FMm</t>
-  </si>
-  <si>
-    <t>RT @AnsaSardegna: Corpi di due migranti in mare Sardegna. . Erano su un barchino senza motore alla deriva da diversi giorni #ANSA https://t.co/svwqjF0FMm</t>
-  </si>
-  <si>
-    <t>Cagliaritano in Sardegna, Sardo in Italia, Italiano nel mondo. Tra il serio e il faceto. Cervello libero in movimento</t>
-  </si>
-  <si>
-    <t>http://twitter.com/Zamberlett/statuses/1190069061432086528</t>
-  </si>
-  <si>
-    <t>20:52:29</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 20:52:29</t>
-  </si>
-  <si>
-    <t>Zamberlett</t>
-  </si>
-  <si>
-    <t>Maria Zamberletti</t>
-  </si>
-  <si>
-    <t>http://twitter.com/zamberlett</t>
-  </si>
-  <si>
-    <t>sports;</t>
-  </si>
-  <si>
-    <t>Person.pro_athlete;Person.sports_coach;</t>
-  </si>
-  <si>
-    <t>Alexander Merkel;Antonio Conte;</t>
-  </si>
-  <si>
-    <t>RT @Rassegne_Italia: Conte si piega alla Merkel, l’accordo choc: “2 voli charter al mese per trasferire i migranti in Italia”. Ira di Salvini: https://t.co/rISpd7OBAN</t>
-  </si>
-  <si>
-    <t>RT @Rassegne_Italia: Conte si piega alla Merkel, l’accordo choc: “2 voli charter al mese per trasferire i migranti in Italia”. . Ira di Salvini: https://t.co/rISpd7OBAN</t>
-  </si>
-  <si>
-    <t>Sono milanese, faccio la consulente. Amo la musica, l'arte, la buona compagnia</t>
-  </si>
-  <si>
-    <t>Twitter Web App</t>
-  </si>
-  <si>
-    <t>http://twitter.com/albmagnani/statuses/1190068274056355842</t>
-  </si>
-  <si>
-    <t>20:49:21</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 20:49:21</t>
-  </si>
-  <si>
-    <t>albmagnani</t>
-  </si>
-  <si>
-    <t>Alberto Magnani</t>
-  </si>
-  <si>
-    <t>http://twitter.com/albmagnani</t>
-  </si>
-  <si>
-    <t>trentino-alto adige</t>
-  </si>
-  <si>
-    <t>sciaves</t>
-  </si>
-  <si>
-    <t>Naz Sciaves (Italy)</t>
-  </si>
-  <si>
-    <t>RT @CesareSacchetti: Immaginate dei migranti che vengono pestati a sangue da un centro sociale di destra. Immaginate poi gli stessi migranti ridotti in schiavitù. Tutto questo lo ha fatto un centro sociale di sinistra. I media non dicono</t>
-  </si>
-  <si>
-    <t>RT @CesareSacchetti: Immaginate dei migranti che vengono pestati a sangue da un centro sociale di destra. Immaginate poi gli stessi migranti ridotti in schiavitù. Tutto questo lo ha fatto un centro sociale di sinistra. I media non dicono nulla sul vero razzismo della sinistra. https://t.co/zJknKpC95f</t>
-  </si>
-  <si>
-    <t>RT @CesareSacchetti: Immaginate dei migranti che vengono pestati a sangue da un centro sociale di destra. . Immaginate poi gli stessi migranti ridotti in schiavitù. . I media non dicono nulla sul vero razzismo della sinistra. https://t.co/zJknKpC95f</t>
-  </si>
-  <si>
-    <t>... mangia libri di cibernetica, insalate di matematica e a giocar su Marte va ... Stay Human</t>
-  </si>
-  <si>
-    <t>http://twitter.com/albmagnani/statuses/1190067013122740225</t>
-  </si>
-  <si>
-    <t>20:44:20</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 20:44:20</t>
-  </si>
-  <si>
-    <t>Location.country;</t>
-  </si>
-  <si>
-    <t>India;</t>
-  </si>
-  <si>
-    <t>RT @CesareSacchetti: Al via a Roma il Congresso mondiale dei gesuiti. Tra i temi affrontati ci saranno: migranti, cambiamento climatico, Honduras e India. C'è tutto, tranne il genocidio dei cristiani nel mondo. I gesuiti si interessano a tutto...</t>
-  </si>
-  <si>
-    <t>RT @CesareSacchetti: Al via a Roma il Congresso mondiale dei gesuiti. Tra i temi affrontati ci saranno: migranti, cambiamento climatico, Honduras e India. C'è tutto, tranne il genocidio dei cristiani nel mondo. I gesuiti si interessano a tutto, tranne che ai cristiani. https://t.co/H5Jtjkaxvj</t>
-  </si>
-  <si>
-    <t>RT @CesareSacchetti: Al via a Roma il Congresso mondiale dei gesuiti. . Tra i temi affrontati ci saranno: migranti, cambiamento climatico, Honduras e India. . I gesuiti si interessano a tutto, tranne che ai cristiani. https://t.co/H5Jtjkaxvj</t>
-  </si>
-  <si>
-    <t>http://twitter.com/ZoldanDaniele/statuses/1190065706894864384</t>
-  </si>
-  <si>
-    <t>20:39:09</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 20:39:09</t>
-  </si>
-  <si>
-    <t>ZoldanDaniele</t>
-  </si>
-  <si>
-    <t>daniele zoldan</t>
-  </si>
-  <si>
-    <t>http://twitter.com/zoldandaniele</t>
-  </si>
-  <si>
-    <t>veneto</t>
-  </si>
-  <si>
-    <t>venezia</t>
-  </si>
-  <si>
-    <t>Friuli-Venezia Giulia, Italia</t>
-  </si>
-  <si>
-    <t>Friulano, Libero Sovranista, a destra ma intellettualmente libero, appassionato del buon calcio e della buona tavola.🇮🇹</t>
-  </si>
-  <si>
-    <t>http://twitter.com/Capobianco2005C/statuses/1190063537785384960</t>
-  </si>
-  <si>
-    <t>20:30:32</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 20:30:32</t>
-  </si>
-  <si>
-    <t>Capobianco2005C</t>
-  </si>
-  <si>
-    <t>Michele Capobianco</t>
-  </si>
-  <si>
-    <t>http://twitter.com/capobianco2005c</t>
-  </si>
-  <si>
-    <t>Italy, Europe, Planet Earth</t>
-  </si>
-  <si>
-    <t>Location.region;</t>
-  </si>
-  <si>
-    <t>Sardegna;</t>
-  </si>
-  <si>
-    <t>RT @AngiKappa: #eccidio #migranti L'orrore e la vergogna. Li hanno trovati a poche miglia dalla Sardegna.I corpi di 2 africani in decomposizione su un gommone senza motore Probabile fossero di più:gli altri morti prima.Succede: chi...</t>
-  </si>
-  <si>
-    <t>RT @AngiKappa: #eccidio #migranti L'orrore e la vergogna. Li hanno trovati a poche miglia dalla Sardegna.I corpi di 2 africani in decomposizione su un gommone senza motore Probabile fossero di più:gli altri morti prima.Succede: chi sopravvive getta in mare i cadaveri. https://t.co/o9t34iam1E</t>
-  </si>
-  <si>
-    <t>RT @AngiKappa: #eccidio #migranti L'orrore e la vergogna.</t>
-  </si>
-  <si>
-    <t>Incredibilmente passato un anno da quando ho aperto l'account Twitter... e seriamente tentato di chiuderlo!</t>
-  </si>
-  <si>
-    <t>http://twitter.com/s_tamburini/statuses/1190061837548707840</t>
-  </si>
-  <si>
-    <t>20:23:47</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 20:23:47</t>
-  </si>
-  <si>
-    <t>s_tamburini</t>
-  </si>
-  <si>
-    <t>Stefano Tamburini</t>
-  </si>
-  <si>
-    <t>http://twitter.com/s_tamburini</t>
-  </si>
-  <si>
-    <t>Roma e Piombino</t>
-  </si>
-  <si>
-    <t>QT @caritas_milano: L'accoglienza in risposta all'#odio ; L'accoglienza in risposta all'#odio. Arrivati altri 54 #rifugiati a Fiumicino grazie ai #CorridoiUmanitari Uniche vie sicure per combattere i trafficanti di morte. https://t.co/4sYbjcbF95</t>
-  </si>
-  <si>
-    <t>QT @caritas_milano: L'accoglienza in risposta all'#odio ; L'accoglienza in risposta all'#odio. . Arrivati altri 54 #rifugiati a Fiumicino grazie ai #CorridoiUmanitari Uniche vie sicure per combattere i trafficanti di morte. https://t.co/4sYbjcbF95</t>
-  </si>
-  <si>
-    <t>Giornalista. Non sono anti, solo antifascista e antimoggisti</t>
-  </si>
-  <si>
-    <t>http://twitter.com/rrico_e/statuses/1190061552969408517</t>
-  </si>
-  <si>
-    <t>20:22:39</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 20:22:39</t>
-  </si>
-  <si>
-    <t>rrico_e</t>
-  </si>
-  <si>
-    <t>Negan 🇮🇹</t>
-  </si>
-  <si>
-    <t>http://twitter.com/rrico_e</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Una palla tonda te la può passare anche il http://muro.Ma una palla ovale te la può passare solo un amico. #LaReteSiamoNoi</t>
+    <t>http://twitter.com/iperwild/statuses/1190109740770086912</t>
+  </si>
+  <si>
+    <t>23:34:08</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 23:34:08</t>
+  </si>
+  <si>
+    <t>http://twitter.com/padesig/statuses/1190086582151331840</t>
+  </si>
+  <si>
+    <t>22:02:06</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 22:02:06</t>
+  </si>
+  <si>
+    <t>padesig</t>
+  </si>
+  <si>
+    <t>Paolo Del Signore</t>
+  </si>
+  <si>
+    <t>http://twitter.com/padesig</t>
+  </si>
+  <si>
+    <t>Rome, Italy</t>
+  </si>
+  <si>
+    <t>Optimist, Catholic left, Progressive.
+Internet and Civil Rights. Based in Rome, Italy</t>
   </si>
   <si>
     <t>http://twitter.com/SDP6929124/statuses/1190060571879772160</t>
@@ -656,118 +1074,54 @@
     <t>http://twitter.com/sdp6929124</t>
   </si>
   <si>
-    <t>Italia;</t>
-  </si>
-  <si>
-    <t>RT @ImolaOggi: La Merkel dà ordini, l'inciucio Pd-M5s obbedisce. Ogni mese la Germania invierà "migranti" in Italia con voli charter. Salvini: "Italia schiava e umiliata" https://t.co/ls45yTAdqE</t>
-  </si>
-  <si>
-    <t>RT @ImolaOggi: La Merkel dà ordini, l'inciucio Pd-M5s obbedisce. . Ogni mese la Germania invierà "migranti" in Italia con voli charter. . Salvini: "Italia schiava e umiliata" https://t.co/ls45yTAdqE</t>
-  </si>
-  <si>
     <t>In tutte le cose della Natura esiste qualcosa di meraviglioso (Aristotele)</t>
   </si>
   <si>
-    <t>http://twitter.com/Tony_studi/statuses/1190078993409695744</t>
-  </si>
-  <si>
-    <t>21:31:57</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 21:31:57</t>
-  </si>
-  <si>
-    <t>Tony_studi</t>
-  </si>
-  <si>
-    <t>Tony 🇮🇹</t>
-  </si>
-  <si>
-    <t>http://twitter.com/tony_studi</t>
-  </si>
-  <si>
-    <t>Italia</t>
-  </si>
-  <si>
-    <t>politics;arts;</t>
-  </si>
-  <si>
-    <t>Person.government_employee;Person.author;</t>
-  </si>
-  <si>
-    <t>Che Guevara;</t>
-  </si>
-  <si>
-    <t>RT @b_ludvig: Pensione di invalidità 285.66€ al mese. Per ogni migrante clandestino più di 1000€al mese. Che dite siamo un paese di merda?</t>
-  </si>
-  <si>
-    <t>RT @b_ludvig: Pensione di invalidità 285.66€ al mese. . Per ogni migrante clandestino più di 1000€al mese. . Che dite siamo un paese di merda?</t>
-  </si>
-  <si>
-    <t>NO IMMIGRAZIONE - NO ISLAM - ANTICOMUNISTA - BLOCCO NAVALE SUBITO</t>
-  </si>
-  <si>
-    <t>http://twitter.com/Dea_Vittoria/statuses/1190111514537201664</t>
-  </si>
-  <si>
-    <t>23:41:10</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 23:41:10</t>
-  </si>
-  <si>
-    <t>Dea_Vittoria</t>
-  </si>
-  <si>
-    <t>La Vittoria 🇮🇹</t>
-  </si>
-  <si>
-    <t>http://twitter.com/dea_vittoria</t>
-  </si>
-  <si>
-    <t>Sovranista. L'Italia è la mia Patria e amo essere italiano. #ItaliaRialzaLaTesta 🇮🇹</t>
-  </si>
-  <si>
-    <t>http://twitter.com/iperwild/statuses/1190110172821295104</t>
-  </si>
-  <si>
-    <t>23:35:51</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 23:35:51</t>
-  </si>
-  <si>
-    <t>iperwild</t>
-  </si>
-  <si>
-    <t>stormy weather</t>
-  </si>
-  <si>
-    <t>http://twitter.com/iperwild</t>
-  </si>
-  <si>
-    <t>http://twitter.com/iperwild/statuses/1190109740770086912</t>
-  </si>
-  <si>
-    <t>23:34:08</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 23:34:08</t>
-  </si>
-  <si>
-    <t>entertainment;arts;</t>
-  </si>
-  <si>
-    <t>Person.artist;Person.director;</t>
-  </si>
-  <si>
-    <t>La fortuna di essere donna;Non ti muovere (film);</t>
-  </si>
-  <si>
-    <t>RT @ImolaOggi: Dlin dlon, comunicazione di servizio antirazzista. Non partecipa al blitz contro la polizia: migrante bastonato dai centri sociali, pestata anche una donna incinta. La commissione contro l'#odio che fa? Dorme? https://t.co/XDDvZORK6B</t>
-  </si>
-  <si>
-    <t>RT @ImolaOggi: Dlin dlon, comunicazione di servizio antirazzista. . Non partecipa al blitz contro la polizia: migrante bastonato dai centri sociali, pestata anche una donna incinta. . La commissione contro l'#odio che fa?</t>
+    <t>http://twitter.com/Maniheli/statuses/1190060110296600577</t>
+  </si>
+  <si>
+    <t>20:16:55</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:16:55</t>
+  </si>
+  <si>
+    <t>Maniheli</t>
+  </si>
+  <si>
+    <t>🌺Andrea F.D.🌺</t>
+  </si>
+  <si>
+    <t>http://twitter.com/maniheli</t>
+  </si>
+  <si>
+    <t>italia</t>
+  </si>
+  <si>
+    <t>Con il beneficio del dissenso, anche a sx. 
+Nessuno è perfetto, ma migliorabile 😎
+#facciamorete con #HaveDemocracy</t>
+  </si>
+  <si>
+    <t>http://twitter.com/trotapop/statuses/1190078128590393350</t>
+  </si>
+  <si>
+    <t>21:28:31</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 21:28:31</t>
+  </si>
+  <si>
+    <t>trotapop</t>
+  </si>
+  <si>
+    <t>Max🇮🇹</t>
+  </si>
+  <si>
+    <t>http://twitter.com/trotapop</t>
+  </si>
+  <si>
+    <t>ATTENZIONE : CREO DIPENDENZA.</t>
   </si>
   <si>
     <t>http://twitter.com/Sono_Priapo/statuses/1190109132768055296</t>
@@ -792,194 +1146,157 @@
 I used to be a god when men belived in gods, now I am just a human</t>
   </si>
   <si>
-    <t>http://twitter.com/PivaEdoardo/statuses/1190101604286050304</t>
-  </si>
-  <si>
-    <t>23:01:48</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 23:01:48</t>
-  </si>
-  <si>
-    <t>PivaEdoardo</t>
-  </si>
-  <si>
-    <t>Edoardo Piva🚩🇮🇹🚩</t>
-  </si>
-  <si>
-    <t>http://twitter.com/pivaedoardo</t>
-  </si>
-  <si>
-    <t>AMO e NON AMO CHI NON AMA
-“libertà nello Stato”, gli obblighi che ciascuno ha nei confronti della collettività
-Bella Ciao -http://youtu.be/4CI3lhyNKfo</t>
-  </si>
-  <si>
-    <t>http://twitter.com/PivaEdoardo/statuses/1190097721836916738</t>
-  </si>
-  <si>
-    <t>22:46:22</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 22:46:22</t>
-  </si>
-  <si>
-    <t>RT @MarioScelzo1: Non festeggio Halloween, non mi rappresenta e non mi trasmette alcuna sensazione. Ciò detto, gradirei che i cattolici che fanno crociate contro Halloween spendessero il loro tempo ad aiutare i poveri serven... migranti come impongono i Vangeli etc......</t>
-  </si>
-  <si>
-    <t>RT @MarioScelzo1: Non festeggio Halloween, non mi rappresenta e non mi trasmette alcuna sensazione. Ciò detto, gradirei che i cattolici che fanno crociate contro Halloween spendessero il loro tempo ad aiutare i poveri servendo nelle mense, accogliendo i migranti come impongono i Vangeli etc...</t>
-  </si>
-  <si>
-    <t>RT @MarioScelzo1: Non festeggio Halloween, non mi rappresenta e non mi trasmette alcuna sensazione. . Ciò detto, gradirei che i cattolici che fanno crociate contro Halloween spendessero il loro tempo ad aiutare i poveri servendo nelle mense, accogliendo i migranti come impongono i Vangeli etc...</t>
-  </si>
-  <si>
-    <t>http://twitter.com/giorgio12860698/statuses/1190096819545497600</t>
-  </si>
-  <si>
-    <t>22:42:47</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 22:42:47</t>
-  </si>
-  <si>
-    <t>giorgio12860698</t>
-  </si>
-  <si>
-    <t>GIORGIO🇮🇹</t>
-  </si>
-  <si>
-    <t>http://twitter.com/giorgio12860698</t>
-  </si>
-  <si>
-    <t>#italiano #sovranista #noIslam #noeuro #difesadellapatria #destra</t>
-  </si>
-  <si>
-    <t>http://twitter.com/SimoneMengoni/statuses/1190096109408010241</t>
-  </si>
-  <si>
-    <t>22:39:58</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 22:39:58</t>
-  </si>
-  <si>
-    <t>SimoneMengoni</t>
-  </si>
-  <si>
-    <t>Simone 🇮🇹</t>
-  </si>
-  <si>
-    <t>http://twitter.com/simonemengoni</t>
-  </si>
-  <si>
-    <t>Romano, classe 1980. 
-Cuore Nero.</t>
-  </si>
-  <si>
-    <t>http://twitter.com/NCicuta/statuses/1190090961260630016</t>
-  </si>
-  <si>
-    <t>22:19:30</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 22:19:30</t>
-  </si>
-  <si>
-    <t>NCicuta</t>
-  </si>
-  <si>
-    <t>Nero Cicuta 🇮🇹</t>
-  </si>
-  <si>
-    <t>http://twitter.com/ncicuta</t>
-  </si>
-  <si>
-    <t>marche</t>
-  </si>
-  <si>
-    <t>Marche, Italia</t>
-  </si>
-  <si>
-    <t>IT Specialist, Papà di Dani e Bea, Sovranista! NO EURO NO EUROPA #antifa: blocco #facciamorete: blocco M5S: strablocco i venduti Straccioblu: blocco automatico</t>
-  </si>
-  <si>
-    <t>http://twitter.com/giorgio12860698/statuses/1190090881082089474</t>
-  </si>
-  <si>
-    <t>22:19:11</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 22:19:11</t>
-  </si>
-  <si>
-    <t>http://twitter.com/zazoomblog/statuses/1190087568538255361</t>
-  </si>
-  <si>
-    <t>22:06:01</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 22:06:01</t>
-  </si>
-  <si>
-    <t>zazoomblog</t>
-  </si>
-  <si>
-    <t>Zazoom Social News</t>
-  </si>
-  <si>
-    <t>http://twitter.com/zazoomblog</t>
-  </si>
-  <si>
-    <t>Migranti diversi governi stessi errori: per i naufragi in mare diritti violati e prassi illegittime - #Migranti #diversi #governi #stessi https://t.co/orKpczijgn</t>
-  </si>
-  <si>
-    <t>Zazoom Social News ... Tutte le notizie dalle migliori fonti del web! Segnala il tuo Blog. Zazoom Social News è un un'idea che aiuta a dar voce al tuo sito!</t>
-  </si>
-  <si>
-    <t>dlvr.it</t>
-  </si>
-  <si>
-    <t>http://twitter.com/padesig/statuses/1190086582151331840</t>
-  </si>
-  <si>
-    <t>22:02:06</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 22:02:06</t>
-  </si>
-  <si>
-    <t>padesig</t>
-  </si>
-  <si>
-    <t>Paolo Del Signore</t>
-  </si>
-  <si>
-    <t>http://twitter.com/padesig</t>
-  </si>
-  <si>
-    <t>Rome, Italy</t>
-  </si>
-  <si>
-    <t>Optimist, Catholic left, Progressive.
-Internet and Civil Rights. Based in Rome, Italy</t>
-  </si>
-  <si>
-    <t>http://twitter.com/GerriLiu5/statuses/1190081991464640512</t>
-  </si>
-  <si>
-    <t>21:43:52</t>
-  </si>
-  <si>
-    <t>31 Oct 2019 21:43:52</t>
-  </si>
-  <si>
-    <t>GerriLiu5</t>
-  </si>
-  <si>
-    <t>Gerri Liu</t>
-  </si>
-  <si>
-    <t>http://twitter.com/gerriliu5</t>
+    <t>http://twitter.com/albmagnani/statuses/1190068274056355842</t>
+  </si>
+  <si>
+    <t>20:49:21</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:49:21</t>
+  </si>
+  <si>
+    <t>albmagnani</t>
+  </si>
+  <si>
+    <t>Alberto Magnani</t>
+  </si>
+  <si>
+    <t>http://twitter.com/albmagnani</t>
+  </si>
+  <si>
+    <t>trentino-alto adige</t>
+  </si>
+  <si>
+    <t>sciaves</t>
+  </si>
+  <si>
+    <t>Naz Sciaves (Italy)</t>
+  </si>
+  <si>
+    <t>... mangia libri di cibernetica, insalate di matematica e a giocar su Marte va ... Stay Human</t>
+  </si>
+  <si>
+    <t>http://twitter.com/albmagnani/statuses/1190067013122740225</t>
+  </si>
+  <si>
+    <t>20:44:20</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:44:20</t>
+  </si>
+  <si>
+    <t>India;</t>
+  </si>
+  <si>
+    <t>RT @CesareSacchetti: Al via a Roma il Congresso mondiale dei gesuiti. Tra i temi affrontati ci saranno: migranti, cambiamento climatico, Honduras e India. C'è tutto, tranne il genocidio dei cristiani nel mondo. I gesuiti si interessano a tutto...</t>
+  </si>
+  <si>
+    <t>RT @CesareSacchetti: Al via a Roma il Congresso mondiale dei gesuiti. Tra i temi affrontati ci saranno: migranti, cambiamento climatico, Honduras e India. C'è tutto, tranne il genocidio dei cristiani nel mondo. I gesuiti si interessano a tutto, tranne che ai cristiani. https://t.co/H5Jtjkaxvj</t>
+  </si>
+  <si>
+    <t>RT @CesareSacchetti: Al via a Roma il Congresso mondiale dei gesuiti. . Tra i temi affrontati ci saranno: migranti, cambiamento climatico, Honduras e India. . I gesuiti si interessano a tutto, tranne che ai cristiani. https://t.co/H5Jtjkaxvj</t>
+  </si>
+  <si>
+    <t>http://twitter.com/Capobianco2005C/statuses/1190063537785384960</t>
+  </si>
+  <si>
+    <t>Capobianco2005C</t>
+  </si>
+  <si>
+    <t>Michele Capobianco</t>
+  </si>
+  <si>
+    <t>http://twitter.com/capobianco2005c</t>
+  </si>
+  <si>
+    <t>Italy, Europe, Planet Earth</t>
+  </si>
+  <si>
+    <t>Incredibilmente passato un anno da quando ho aperto l'account Twitter... e seriamente tentato di chiuderlo!</t>
+  </si>
+  <si>
+    <t>http://twitter.com/CkRaffaella/statuses/1190075354574131200</t>
+  </si>
+  <si>
+    <t>21:17:29</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 21:17:29</t>
+  </si>
+  <si>
+    <t>CkRaffaella</t>
+  </si>
+  <si>
+    <t>RaffaellaCK</t>
+  </si>
+  <si>
+    <t>http://twitter.com/ckraffaella</t>
+  </si>
+  <si>
+    <t>Org.newspaper;Location.city;</t>
+  </si>
+  <si>
+    <t>Avvenire;Tripoli;</t>
+  </si>
+  <si>
+    <t>QT @Avvenire_Nei: RT @senzasinistra: Solo sull'Avvenire, spaventa la noncuranza con cui #5s #pd #Leu e #gruppoRenzi danno il loro consenso al rinnovo degli #… ; Accordo Italia-Libia sui migranti: il mistero dei 5 miliardi (per...</t>
+  </si>
+  <si>
+    <t>QT @Avvenire_Nei: RT @senzasinistra: Solo sull'Avvenire, spaventa la noncuranza con cui #5s #pd #Leu e #gruppoRenzi danno il loro consenso al rinnovo degli #… ; Accordo Italia-Libia sui migranti: il mistero dei 5 miliardi (per Tripoli) https://t.co/0KglQdpGB1 (di @nelloscavo</t>
+  </si>
+  <si>
+    <t>Pure Einstein era un rifugiato.</t>
+  </si>
+  <si>
+    <t>http://twitter.com/LNocoro/statuses/1190062304261541888</t>
+  </si>
+  <si>
+    <t>20:25:38</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 20:25:38</t>
+  </si>
+  <si>
+    <t>LNocoro</t>
+  </si>
+  <si>
+    <t>Leonardo Nocoro</t>
+  </si>
+  <si>
+    <t>http://twitter.com/lnocoro</t>
+  </si>
+  <si>
+    <t>"l'invasione dei migranti non c'é" "i corpi di due migranti recuperati in mare". Due tweet, uno dietro l'altro. Sarà una coincidenza? https://t.co/FWfVtWz0fe</t>
+  </si>
+  <si>
+    <t>"l'invasione dei migranti non c'é" "i corpi di due migranti recuperati in mare". . Due tweet, uno dietro l'altro. . Sarà una coincidenza?</t>
+  </si>
+  <si>
+    <t>http://twitter.com/simonilli/statuses/1190115994116722689</t>
+  </si>
+  <si>
+    <t>23:58:58</t>
+  </si>
+  <si>
+    <t>31 Oct 2019 23:58:58</t>
+  </si>
+  <si>
+    <t>simonilli</t>
+  </si>
+  <si>
+    <t>Simonilli</t>
+  </si>
+  <si>
+    <t>http://twitter.com/simonilli</t>
+  </si>
+  <si>
+    <t>zero branco</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>Twitter for iPad</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1336,7 +1653,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1436,57 +1753,60 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s"/>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>185</v>
+        <v>7538</v>
       </c>
       <c r="N2" t="n">
-        <v>1378</v>
+        <v>1922</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
@@ -1514,768 +1834,777 @@
       <c r="AD2" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" t="s"/>
+      <c r="AF2" t="s">
         <v>52</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="n">
+        <v>1.1901089067832e+18</v>
+      </c>
+      <c r="AH2" t="s">
         <v>53</v>
       </c>
-      <c r="AG2" t="n">
-        <v>1.19007812859039e+18</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
       </c>
       <c r="H3" t="s"/>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>681</v>
+        <v>7538</v>
       </c>
       <c r="N3" t="n">
-        <v>37</v>
+        <v>1922</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
         <v>46</v>
       </c>
-      <c r="W3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
       <c r="Z3" t="s"/>
       <c r="AA3" t="s"/>
       <c r="AB3" t="s"/>
       <c r="AC3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AE3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.19007654415433e+18</v>
+        <v>1.19006349704192e+18</v>
       </c>
       <c r="AH3" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="AI3" t="s"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s"/>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>102</v>
+        <v>14469</v>
       </c>
       <c r="N4" t="n">
-        <v>426</v>
+        <v>3250</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T4" t="s">
-        <v>76</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
       <c r="U4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="V4" t="s">
         <v>46</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
       <c r="AB4" t="s"/>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AD4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE4" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
       <c r="AF4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.19007535457413e+18</v>
+        <v>1.19006063024769e+18</v>
       </c>
       <c r="AH4" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AI4" t="s"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5" s="1" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>689</v>
+        <v>2523</v>
       </c>
       <c r="N5" t="n">
-        <v>642</v>
+        <v>1395</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T5" t="s">
-        <v>91</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
       <c r="U5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s">
         <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="Z5" t="s"/>
       <c r="AA5" t="s"/>
       <c r="AB5" t="s"/>
       <c r="AC5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AD5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AE5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.19007504841512e+18</v>
+        <v>1.19009654793514e+18</v>
       </c>
       <c r="AH5" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>2804</v>
+        <v>1999</v>
       </c>
       <c r="N6" t="n">
-        <v>2887</v>
+        <v>3763</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="T6" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="U6" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="V6" t="s">
         <v>46</v>
       </c>
-      <c r="W6" t="s"/>
+      <c r="W6" t="s">
+        <v>99</v>
+      </c>
       <c r="X6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Y6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Z6" t="s"/>
       <c r="AA6" t="s"/>
       <c r="AB6" t="s"/>
       <c r="AC6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF6" t="s"/>
+      <c r="AG6" t="n">
+        <v>1.19009693498131e+18</v>
+      </c>
+      <c r="AH6" t="s">
         <v>105</v>
       </c>
-      <c r="AD6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AI6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>106</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>107</v>
       </c>
-      <c r="AG6" t="n">
-        <v>1.19007330549306e+18</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>108</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s">
-        <v>110</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s">
         <v>111</v>
-      </c>
-      <c r="J7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" t="s">
-        <v>113</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1180</v>
+        <v>2415</v>
       </c>
       <c r="N7" t="n">
-        <v>3278</v>
+        <v>3257</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" t="s">
-        <v>90</v>
-      </c>
-      <c r="T7" t="s">
-        <v>114</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
       <c r="U7" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="V7" t="s">
         <v>46</v>
       </c>
-      <c r="W7" t="s"/>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="Z7" t="s"/>
       <c r="AA7" t="s"/>
       <c r="AB7" t="s"/>
       <c r="AC7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="AD7" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AE7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="AF7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.19007145092286e+18</v>
+        <v>1.19009088108209e+18</v>
       </c>
       <c r="AH7" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8" s="1" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L8" t="n">
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1379</v>
+        <v>681</v>
       </c>
       <c r="N8" t="n">
-        <v>947</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="Q8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" t="s">
-        <v>123</v>
-      </c>
-      <c r="T8" t="s">
-        <v>124</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
       <c r="U8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="V8" t="s">
         <v>46</v>
       </c>
-      <c r="W8" t="s"/>
+      <c r="W8" t="s">
+        <v>81</v>
+      </c>
       <c r="X8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Y8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Z8" t="s"/>
       <c r="AA8" t="s"/>
       <c r="AB8" t="s"/>
       <c r="AC8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.19007654415433e+18</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" t="s">
         <v>128</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1.19006964228022e+18</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" t="s">
-        <v>133</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>3106</v>
+        <v>1609</v>
       </c>
       <c r="N9" t="n">
-        <v>3336</v>
+        <v>3001</v>
       </c>
       <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
+      <c r="P9" t="s">
+        <v>43</v>
+      </c>
       <c r="Q9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="T9" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="U9" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="V9" t="s">
         <v>46</v>
       </c>
       <c r="W9" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="Z9" t="s"/>
       <c r="AA9" t="s"/>
       <c r="AB9" t="s"/>
       <c r="AC9" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="AD9" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AE9" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="AF9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.19006906143209e+18</v>
+        <v>1.19006570689486e+18</v>
       </c>
       <c r="AH9" t="s">
-        <v>143</v>
+        <v>105</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10" s="1" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H10" t="s"/>
       <c r="I10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>97</v>
+        <v>2509</v>
       </c>
       <c r="N10" t="n">
-        <v>357</v>
+        <v>2123</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="Q10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" t="s">
-        <v>150</v>
-      </c>
-      <c r="T10" t="s">
-        <v>151</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
       <c r="U10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="V10" t="s">
         <v>46</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
+      <c r="W10" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>83</v>
+      </c>
       <c r="Z10" t="s"/>
       <c r="AA10" t="s"/>
       <c r="AB10" t="s"/>
       <c r="AC10" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="AD10" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="AE10" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="AF10" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.19006827405636e+18</v>
+        <v>1.19006353810832e+18</v>
       </c>
       <c r="AH10" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11" s="1" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s">
@@ -2288,1572 +2617,1563 @@
         <v>149</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>97</v>
+        <v>2009</v>
       </c>
       <c r="N11" t="n">
-        <v>357</v>
+        <v>3893</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" t="s">
-        <v>150</v>
-      </c>
-      <c r="T11" t="s">
-        <v>151</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
       <c r="U11" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s">
         <v>46</v>
       </c>
-      <c r="W11" t="s"/>
+      <c r="W11" t="s">
+        <v>150</v>
+      </c>
       <c r="X11" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="Y11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Z11" t="s"/>
       <c r="AA11" t="s"/>
       <c r="AB11" t="s"/>
       <c r="AC11" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AD11" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AE11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AF11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1.19006136315195e+18</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
         <v>156</v>
       </c>
-      <c r="AG11" t="n">
-        <v>1.19006701312274e+18</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s"/>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="L12" t="n">
         <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1609</v>
+        <v>2415</v>
       </c>
       <c r="N12" t="n">
-        <v>3001</v>
+        <v>3257</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" t="s">
-        <v>171</v>
-      </c>
-      <c r="T12" t="s">
-        <v>172</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
       <c r="U12" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="V12" t="s">
         <v>46</v>
       </c>
       <c r="W12" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="X12" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s"/>
       <c r="AA12" t="s"/>
       <c r="AB12" t="s"/>
       <c r="AC12" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="AD12" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="AE12" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="AF12" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.19006570689486e+18</v>
+        <v>1.1900968195455e+18</v>
       </c>
       <c r="AH12" t="s">
-        <v>143</v>
+        <v>88</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13" s="1" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s"/>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="J13" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K13" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>199</v>
+        <v>3106</v>
       </c>
       <c r="N13" t="n">
-        <v>157</v>
+        <v>3336</v>
       </c>
       <c r="O13" t="s"/>
-      <c r="P13" t="s">
-        <v>42</v>
-      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="S13" t="s">
+        <v>96</v>
+      </c>
+      <c r="T13" t="s">
+        <v>97</v>
+      </c>
       <c r="U13" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="V13" t="s">
         <v>46</v>
       </c>
-      <c r="W13" t="s"/>
+      <c r="W13" t="s">
+        <v>159</v>
+      </c>
       <c r="X13" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="Z13" t="s"/>
       <c r="AA13" t="s"/>
       <c r="AB13" t="s"/>
       <c r="AC13" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AD13" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="AE13" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.19006353778539e+18</v>
+        <v>1.19006906143209e+18</v>
       </c>
       <c r="AH13" t="s">
-        <v>143</v>
+        <v>105</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14" s="1" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s"/>
       <c r="I14" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>3955</v>
+        <v>2509</v>
       </c>
       <c r="N14" t="n">
-        <v>771</v>
+        <v>2123</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="Q14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
-      </c>
-      <c r="S14" t="s">
-        <v>75</v>
-      </c>
-      <c r="T14" t="s">
-        <v>76</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
       <c r="U14" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="V14" t="s">
         <v>46</v>
       </c>
-      <c r="W14" t="s"/>
+      <c r="W14" t="s">
+        <v>175</v>
+      </c>
       <c r="X14" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s"/>
       <c r="AA14" t="s"/>
       <c r="AB14" t="s"/>
       <c r="AC14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="AD14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="AE14" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="AF14" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.19006183754871e+18</v>
+        <v>1.19006545907434e+18</v>
       </c>
       <c r="AH14" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15" s="1" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="H15" t="s"/>
       <c r="I15" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="J15" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="K15" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="L15" t="n">
         <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1552</v>
+        <v>1660</v>
       </c>
       <c r="N15" t="n">
-        <v>1723</v>
+        <v>1495</v>
       </c>
       <c r="O15" t="s"/>
-      <c r="P15" t="s">
-        <v>42</v>
-      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="T15" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="U15" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="V15" t="s">
         <v>46</v>
       </c>
       <c r="W15" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="X15" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s"/>
       <c r="AA15" t="s"/>
       <c r="AB15" t="s"/>
       <c r="AC15" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="AD15" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="AE15" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="AF15" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.19006155296941e+18</v>
+        <v>1.19006191300009e+18</v>
       </c>
       <c r="AH15" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16" s="1" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H16" t="s"/>
       <c r="I16" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>328</v>
+        <v>1999</v>
       </c>
       <c r="N16" t="n">
-        <v>163</v>
+        <v>3763</v>
       </c>
       <c r="O16" t="s"/>
       <c r="P16" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="T16" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="U16" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="V16" t="s">
         <v>46</v>
       </c>
       <c r="W16" t="s"/>
-      <c r="X16" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>212</v>
-      </c>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
       <c r="Z16" t="s"/>
       <c r="AA16" t="s"/>
       <c r="AB16" t="s"/>
       <c r="AC16" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="AD16" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="AE16" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>215</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="AF16" t="s"/>
       <c r="AG16" t="n">
-        <v>1.19006057187977e+18</v>
+        <v>1.19010218466022e+18</v>
       </c>
       <c r="AH16" t="s">
-        <v>83</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AI16" t="s"/>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17" s="1" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="H17" t="s"/>
       <c r="I17" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K17" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>326</v>
+        <v>3095</v>
       </c>
       <c r="N17" t="n">
-        <v>82</v>
+        <v>4946</v>
       </c>
       <c r="O17" t="s"/>
       <c r="P17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="V17" t="s">
         <v>46</v>
       </c>
-      <c r="W17" t="s">
-        <v>223</v>
-      </c>
+      <c r="W17" t="s"/>
       <c r="X17" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="Y17" t="s">
-        <v>225</v>
+        <v>68</v>
       </c>
       <c r="Z17" t="s"/>
       <c r="AA17" t="s"/>
       <c r="AB17" t="s"/>
       <c r="AC17" t="s">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c r="AD17" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="AE17" t="s">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="AF17" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.1900789934097e+18</v>
+        <v>1.19010160428605e+18</v>
       </c>
       <c r="AH17" t="s">
-        <v>54</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AI17" t="s"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="H18" t="s"/>
       <c r="I18" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>5505</v>
+        <v>1999</v>
       </c>
       <c r="N18" t="n">
-        <v>4018</v>
+        <v>3763</v>
       </c>
       <c r="O18" t="s"/>
       <c r="P18" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s">
-        <v>44</v>
-      </c>
-      <c r="S18" t="s"/>
-      <c r="T18" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="S18" t="s">
+        <v>96</v>
+      </c>
+      <c r="T18" t="s">
+        <v>97</v>
+      </c>
       <c r="U18" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="V18" t="s">
         <v>46</v>
       </c>
-      <c r="W18" t="s">
-        <v>47</v>
-      </c>
-      <c r="X18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>49</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
       <c r="Z18" t="s"/>
       <c r="AA18" t="s"/>
       <c r="AB18" t="s"/>
       <c r="AC18" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="AD18" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="AE18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>235</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="AF18" t="s"/>
       <c r="AG18" t="n">
-        <v>1.1901115145372e+18</v>
+        <v>1.19009969982037e+18</v>
       </c>
       <c r="AH18" t="s">
-        <v>83</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AI18" t="s"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19" s="1" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="H19" t="s"/>
       <c r="I19" t="s">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>450</v>
+        <v>1999</v>
       </c>
       <c r="N19" t="n">
-        <v>755</v>
+        <v>3763</v>
       </c>
       <c r="O19" t="s"/>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="T19" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="U19" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="V19" t="s">
         <v>46</v>
       </c>
-      <c r="W19" t="s">
-        <v>47</v>
-      </c>
-      <c r="X19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>49</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
       <c r="Z19" t="s"/>
       <c r="AA19" t="s"/>
       <c r="AB19" t="s"/>
       <c r="AC19" t="s">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="AD19" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="AE19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>240</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AF19" t="s"/>
       <c r="AG19" t="n">
-        <v>1.1901101728213e+18</v>
+        <v>1.19009880802324e+18</v>
       </c>
       <c r="AH19" t="s">
-        <v>54</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AI19" t="s"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20" s="1" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="G20" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="H20" t="s"/>
       <c r="I20" t="s">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>450</v>
+        <v>1999</v>
       </c>
       <c r="N20" t="n">
-        <v>755</v>
+        <v>3763</v>
       </c>
       <c r="O20" t="s"/>
       <c r="P20" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S20" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="T20" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="U20" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="V20" t="s">
         <v>46</v>
       </c>
-      <c r="W20" t="s">
-        <v>245</v>
-      </c>
-      <c r="X20" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>247</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
       <c r="Z20" t="s"/>
       <c r="AA20" t="s"/>
       <c r="AB20" t="s"/>
       <c r="AC20" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="AD20" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="AE20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>240</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="AF20" t="s"/>
       <c r="AG20" t="n">
-        <v>1.19010974077009e+18</v>
+        <v>1.19009798840587e+18</v>
       </c>
       <c r="AH20" t="s">
-        <v>54</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AI20" t="s"/>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="H21" t="s"/>
       <c r="I21" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>249</v>
+        <v>3095</v>
       </c>
       <c r="N21" t="n">
-        <v>223</v>
+        <v>4946</v>
       </c>
       <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
+      <c r="P21" t="s">
+        <v>43</v>
+      </c>
       <c r="Q21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="V21" t="s">
         <v>46</v>
       </c>
-      <c r="W21" t="s">
-        <v>137</v>
-      </c>
-      <c r="X21" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>139</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
       <c r="Z21" t="s"/>
       <c r="AA21" t="s"/>
       <c r="AB21" t="s"/>
       <c r="AC21" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="AD21" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="AE21" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.19010913276806e+18</v>
+        <v>1.19009772183692e+18</v>
       </c>
       <c r="AH21" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AI21" t="s"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22" s="1" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="H22" t="s"/>
       <c r="I22" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="L22" t="n">
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>3095</v>
+        <v>1999</v>
       </c>
       <c r="N22" t="n">
-        <v>4946</v>
+        <v>3763</v>
       </c>
       <c r="O22" t="s"/>
       <c r="P22" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="Q22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
-      </c>
-      <c r="S22" t="s"/>
-      <c r="T22" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="S22" t="s">
+        <v>96</v>
+      </c>
+      <c r="T22" t="s">
+        <v>97</v>
+      </c>
       <c r="U22" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="V22" t="s">
         <v>46</v>
       </c>
       <c r="W22" t="s"/>
-      <c r="X22" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>183</v>
-      </c>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
       <c r="Z22" t="s"/>
       <c r="AA22" t="s"/>
       <c r="AB22" t="s"/>
       <c r="AC22" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="AD22" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="AE22" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>263</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="AF22" t="s"/>
       <c r="AG22" t="n">
-        <v>1.19010160428605e+18</v>
+        <v>1.19009700692616e+18</v>
       </c>
       <c r="AH22" t="s">
-        <v>83</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AI22" t="s"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="H23" t="s"/>
       <c r="I23" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="L23" t="n">
         <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>3095</v>
+        <v>1942</v>
       </c>
       <c r="N23" t="n">
-        <v>4946</v>
+        <v>1285</v>
       </c>
       <c r="O23" t="s"/>
-      <c r="P23" t="s">
-        <v>42</v>
-      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="V23" t="s">
         <v>46</v>
       </c>
       <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
+      <c r="X23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>237</v>
+      </c>
       <c r="Z23" t="s"/>
       <c r="AA23" t="s"/>
       <c r="AB23" t="s"/>
       <c r="AC23" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="AD23" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="AE23" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.19009772183692e+18</v>
+        <v>1.19008280881292e+18</v>
       </c>
       <c r="AH23" t="s">
-        <v>83</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AI23" t="s"/>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24" s="1" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="H24" t="s"/>
       <c r="I24" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="J24" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="K24" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="L24" t="n">
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>2415</v>
+        <v>1618</v>
       </c>
       <c r="N24" t="n">
-        <v>3257</v>
+        <v>669</v>
       </c>
       <c r="O24" t="s"/>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="Q24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" t="s"/>
-      <c r="T24" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="S24" t="s">
+        <v>96</v>
+      </c>
+      <c r="T24" t="s">
+        <v>97</v>
+      </c>
       <c r="U24" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="V24" t="s">
         <v>46</v>
       </c>
-      <c r="W24" t="s">
-        <v>137</v>
-      </c>
+      <c r="W24" t="s"/>
       <c r="X24" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="Y24" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="Z24" t="s"/>
       <c r="AA24" t="s"/>
       <c r="AB24" t="s"/>
       <c r="AC24" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="AD24" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="AE24" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.1900968195455e+18</v>
+        <v>1.19007671323504e+18</v>
       </c>
       <c r="AH24" t="s">
-        <v>54</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AI24" t="s"/>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25" s="1" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="H25" t="s"/>
       <c r="I25" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="J25" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>962</v>
+        <v>1180</v>
       </c>
       <c r="N25" t="n">
-        <v>1780</v>
+        <v>3278</v>
       </c>
       <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
+      <c r="P25" t="s">
+        <v>43</v>
+      </c>
       <c r="Q25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S25" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="T25" t="s">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="U25" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="V25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
-        <v>47</v>
-      </c>
+      <c r="W25" t="s"/>
       <c r="X25" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s"/>
       <c r="AA25" t="s"/>
       <c r="AB25" t="s"/>
       <c r="AC25" t="s">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="AD25" t="s">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="AE25" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="AF25" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.19009610940801e+18</v>
+        <v>1.19007145092286e+18</v>
       </c>
       <c r="AH25" t="s">
-        <v>143</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AI25" t="s"/>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26" s="1" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="G26" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="H26" t="s"/>
       <c r="I26" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>680</v>
+        <v>1379</v>
       </c>
       <c r="N26" t="n">
-        <v>1270</v>
+        <v>947</v>
       </c>
       <c r="O26" t="s"/>
       <c r="P26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S26" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="T26" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="U26" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="V26" t="s">
         <v>46</v>
       </c>
-      <c r="W26" t="s">
-        <v>47</v>
-      </c>
+      <c r="W26" t="s"/>
       <c r="X26" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="Y26" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="Z26" t="s"/>
       <c r="AA26" t="s"/>
       <c r="AB26" t="s"/>
       <c r="AC26" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="AD26" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c r="AE26" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="AF26" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.19009096126063e+18</v>
+        <v>1.19006964228022e+18</v>
       </c>
       <c r="AH26" t="s">
-        <v>54</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AI26" t="s"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27" s="1" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="H27" t="s"/>
       <c r="I27" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="J27" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="L27" t="n">
         <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>2415</v>
+        <v>1660</v>
       </c>
       <c r="N27" t="n">
-        <v>3257</v>
+        <v>1495</v>
       </c>
       <c r="O27" t="s"/>
-      <c r="P27" t="s">
-        <v>42</v>
-      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" t="s"/>
-      <c r="T27" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="S27" t="s">
+        <v>96</v>
+      </c>
+      <c r="T27" t="s">
+        <v>97</v>
+      </c>
       <c r="U27" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="V27" t="s">
         <v>46</v>
       </c>
-      <c r="W27" t="s">
-        <v>47</v>
-      </c>
+      <c r="W27" t="s"/>
       <c r="X27" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="Y27" t="s">
-        <v>49</v>
+        <v>280</v>
       </c>
       <c r="Z27" t="s"/>
       <c r="AA27" t="s"/>
       <c r="AB27" t="s"/>
       <c r="AC27" t="s">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="AD27" t="s">
-        <v>51</v>
+        <v>281</v>
       </c>
       <c r="AE27" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="AF27" t="s">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="AG27" t="n">
-        <v>1.19009088108209e+18</v>
+        <v>1.19006365149715e+18</v>
       </c>
       <c r="AH27" t="s">
-        <v>54</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AI27" t="s"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
       <c r="D28" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="G28" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H28" t="s"/>
       <c r="I28" t="s">
-        <v>299</v>
+        <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>5261</v>
+        <v>2509</v>
       </c>
       <c r="N28" t="n">
-        <v>1562</v>
+        <v>2123</v>
       </c>
       <c r="O28" t="s"/>
-      <c r="P28" t="s"/>
+      <c r="P28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="V28" t="s">
         <v>46</v>
@@ -3865,204 +4185,1584 @@
       <c r="AA28" t="s"/>
       <c r="AB28" t="s"/>
       <c r="AC28" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AD28" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="AE28" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="AF28" t="s">
-        <v>303</v>
+        <v>143</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.19008756853826e+18</v>
+        <v>1.19006244492168e+18</v>
       </c>
       <c r="AH28" t="s">
-        <v>304</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AI28" t="s"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29" s="1" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="H29" t="s"/>
       <c r="I29" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="L29" t="n">
         <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>652</v>
+        <v>385</v>
       </c>
       <c r="N29" t="n">
-        <v>2689</v>
+        <v>622</v>
       </c>
       <c r="O29" t="s"/>
-      <c r="P29" t="s">
-        <v>42</v>
-      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R29" t="s">
-        <v>44</v>
-      </c>
-      <c r="S29" t="s">
-        <v>75</v>
-      </c>
-      <c r="T29" t="s">
-        <v>76</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
       <c r="U29" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="V29" t="s">
         <v>46</v>
       </c>
-      <c r="W29" t="s"/>
+      <c r="W29" t="s">
+        <v>295</v>
+      </c>
       <c r="X29" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="Y29" t="s">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="Z29" t="s"/>
       <c r="AA29" t="s"/>
       <c r="AB29" t="s"/>
       <c r="AC29" t="s">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="AD29" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="AE29" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="AF29" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.19008658215133e+18</v>
+        <v>1.19007744097202e+18</v>
       </c>
       <c r="AH29" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30" s="1" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G30" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H30" t="s"/>
       <c r="I30" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J30" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="K30" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>36</v>
+        <v>450</v>
       </c>
       <c r="N30" t="n">
-        <v>90</v>
+        <v>755</v>
       </c>
       <c r="O30" t="s"/>
       <c r="P30" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S30" t="s">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="T30" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="U30" t="s">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="V30" t="s">
         <v>46</v>
       </c>
-      <c r="W30" t="s"/>
+      <c r="W30" t="s">
+        <v>81</v>
+      </c>
       <c r="X30" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="Z30" t="s"/>
       <c r="AA30" t="s"/>
       <c r="AB30" t="s"/>
       <c r="AC30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1.1901101728213e+18</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>311</v>
+      </c>
+      <c r="G31" t="s">
+        <v>312</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>313</v>
+      </c>
+      <c r="J31" t="s">
+        <v>314</v>
+      </c>
+      <c r="K31" t="s">
+        <v>315</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>499</v>
+      </c>
+      <c r="N31" t="n">
+        <v>603</v>
+      </c>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>44</v>
+      </c>
+      <c r="R31" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s">
+        <v>119</v>
+      </c>
+      <c r="V31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W31" t="s">
+        <v>81</v>
+      </c>
+      <c r="X31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z31" t="s"/>
+      <c r="AA31" t="s"/>
+      <c r="AB31" t="s"/>
+      <c r="AC31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF31" t="s"/>
+      <c r="AG31" t="n">
+        <v>1.19010318172597e+18</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>317</v>
+      </c>
+      <c r="G32" t="s">
+        <v>318</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>319</v>
+      </c>
+      <c r="J32" t="s">
+        <v>320</v>
+      </c>
+      <c r="K32" t="s">
+        <v>321</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>326</v>
+      </c>
+      <c r="N32" t="n">
+        <v>82</v>
+      </c>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s">
+        <v>66</v>
+      </c>
+      <c r="V32" t="s">
+        <v>46</v>
+      </c>
+      <c r="W32" t="s">
+        <v>150</v>
+      </c>
+      <c r="X32" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z32" t="s"/>
+      <c r="AA32" t="s"/>
+      <c r="AB32" t="s"/>
+      <c r="AC32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.1900789934097e+18</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>324</v>
+      </c>
+      <c r="G33" t="s">
+        <v>325</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>326</v>
+      </c>
+      <c r="J33" t="s">
+        <v>327</v>
+      </c>
+      <c r="K33" t="s">
+        <v>328</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>689</v>
+      </c>
+      <c r="N33" t="n">
+        <v>642</v>
+      </c>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>44</v>
+      </c>
+      <c r="R33" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" t="s">
+        <v>96</v>
+      </c>
+      <c r="T33" t="s">
+        <v>97</v>
+      </c>
+      <c r="U33" t="s">
+        <v>170</v>
+      </c>
+      <c r="V33" t="s">
+        <v>46</v>
+      </c>
+      <c r="W33" t="s">
+        <v>81</v>
+      </c>
+      <c r="X33" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z33" t="s"/>
+      <c r="AA33" t="s"/>
+      <c r="AB33" t="s"/>
+      <c r="AC33" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.19007504841512e+18</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>333</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>334</v>
+      </c>
+      <c r="G34" t="s">
+        <v>335</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>450</v>
+      </c>
+      <c r="N34" t="n">
+        <v>755</v>
+      </c>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R34" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" t="s">
+        <v>307</v>
+      </c>
+      <c r="T34" t="s">
+        <v>308</v>
+      </c>
+      <c r="U34" t="s">
+        <v>309</v>
+      </c>
+      <c r="V34" t="s">
+        <v>46</v>
+      </c>
+      <c r="W34" t="s">
+        <v>186</v>
+      </c>
+      <c r="X34" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z34" t="s"/>
+      <c r="AA34" t="s"/>
+      <c r="AB34" t="s"/>
+      <c r="AC34" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1.19010974077009e+18</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>336</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>337</v>
+      </c>
+      <c r="G35" t="s">
+        <v>338</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>339</v>
+      </c>
+      <c r="J35" t="s">
+        <v>340</v>
+      </c>
+      <c r="K35" t="s">
+        <v>341</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>652</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2689</v>
+      </c>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" t="s">
+        <v>307</v>
+      </c>
+      <c r="T35" t="s">
+        <v>308</v>
+      </c>
+      <c r="U35" t="s">
+        <v>342</v>
+      </c>
+      <c r="V35" t="s">
+        <v>46</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z35" t="s"/>
+      <c r="AA35" t="s"/>
+      <c r="AB35" t="s"/>
+      <c r="AC35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>343</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1.19008658215133e+18</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI35" t="s"/>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>344</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>345</v>
+      </c>
+      <c r="G36" t="s">
+        <v>346</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>347</v>
+      </c>
+      <c r="J36" t="s">
+        <v>348</v>
+      </c>
+      <c r="K36" t="s">
+        <v>349</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>328</v>
+      </c>
+      <c r="N36" t="n">
+        <v>163</v>
+      </c>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>44</v>
+      </c>
+      <c r="R36" t="s">
+        <v>45</v>
+      </c>
+      <c r="S36" t="s">
+        <v>132</v>
+      </c>
+      <c r="T36" t="s">
+        <v>133</v>
+      </c>
+      <c r="U36" t="s">
+        <v>134</v>
+      </c>
+      <c r="V36" t="s">
+        <v>46</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z36" t="s"/>
+      <c r="AA36" t="s"/>
+      <c r="AB36" t="s"/>
+      <c r="AC36" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1.19006057187977e+18</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI36" t="s"/>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" t="s">
+        <v>353</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>354</v>
+      </c>
+      <c r="J37" t="s">
+        <v>355</v>
+      </c>
+      <c r="K37" t="s">
+        <v>356</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>864</v>
+      </c>
+      <c r="N37" t="n">
+        <v>783</v>
+      </c>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s">
+        <v>44</v>
+      </c>
+      <c r="R37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s">
+        <v>357</v>
+      </c>
+      <c r="V37" t="s">
+        <v>46</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z37" t="s"/>
+      <c r="AA37" t="s"/>
+      <c r="AB37" t="s"/>
+      <c r="AC37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1.1900601102966e+18</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI37" t="s"/>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
+        <v>360</v>
+      </c>
+      <c r="G38" t="s">
+        <v>361</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>362</v>
+      </c>
+      <c r="J38" t="s">
+        <v>363</v>
+      </c>
+      <c r="K38" t="s">
+        <v>364</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>185</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1378</v>
+      </c>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>44</v>
+      </c>
+      <c r="R38" t="s">
+        <v>45</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s">
+        <v>357</v>
+      </c>
+      <c r="V38" t="s">
+        <v>46</v>
+      </c>
+      <c r="W38" t="s">
+        <v>81</v>
+      </c>
+      <c r="X38" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z38" t="s"/>
+      <c r="AA38" t="s"/>
+      <c r="AB38" t="s"/>
+      <c r="AC38" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1.19007812859039e+18</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>366</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>367</v>
+      </c>
+      <c r="G39" t="s">
+        <v>368</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J39" t="s">
+        <v>370</v>
+      </c>
+      <c r="K39" t="s">
+        <v>371</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>249</v>
+      </c>
+      <c r="N39" t="n">
+        <v>223</v>
+      </c>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s">
+        <v>44</v>
+      </c>
+      <c r="R39" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s">
+        <v>66</v>
+      </c>
+      <c r="V39" t="s">
+        <v>46</v>
+      </c>
+      <c r="W39" t="s">
+        <v>159</v>
+      </c>
+      <c r="X39" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z39" t="s"/>
+      <c r="AA39" t="s"/>
+      <c r="AB39" t="s"/>
+      <c r="AC39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1.19010913276806e+18</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>374</v>
+      </c>
+      <c r="G40" t="s">
+        <v>375</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>376</v>
+      </c>
+      <c r="J40" t="s">
+        <v>377</v>
+      </c>
+      <c r="K40" t="s">
+        <v>378</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>97</v>
+      </c>
+      <c r="N40" t="n">
+        <v>357</v>
+      </c>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>44</v>
+      </c>
+      <c r="R40" t="s">
+        <v>45</v>
+      </c>
+      <c r="S40" t="s">
+        <v>379</v>
+      </c>
+      <c r="T40" t="s">
+        <v>380</v>
+      </c>
+      <c r="U40" t="s">
+        <v>381</v>
+      </c>
+      <c r="V40" t="s">
+        <v>46</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+      <c r="Z40" t="s"/>
+      <c r="AA40" t="s"/>
+      <c r="AB40" t="s"/>
+      <c r="AC40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1.19006827405636e+18</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI40" t="s"/>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>383</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>384</v>
+      </c>
+      <c r="G41" t="s">
+        <v>385</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>376</v>
+      </c>
+      <c r="J41" t="s">
+        <v>377</v>
+      </c>
+      <c r="K41" t="s">
+        <v>378</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>97</v>
+      </c>
+      <c r="N41" t="n">
+        <v>357</v>
+      </c>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41" t="s">
+        <v>45</v>
+      </c>
+      <c r="S41" t="s">
+        <v>379</v>
+      </c>
+      <c r="T41" t="s">
+        <v>380</v>
+      </c>
+      <c r="U41" t="s">
+        <v>381</v>
+      </c>
+      <c r="V41" t="s">
+        <v>46</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z41" t="s"/>
+      <c r="AA41" t="s"/>
+      <c r="AB41" t="s"/>
+      <c r="AC41" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1.19006701312274e+18</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI41" t="s"/>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="A42" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>390</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>391</v>
+      </c>
+      <c r="J42" t="s">
+        <v>392</v>
+      </c>
+      <c r="K42" t="s">
+        <v>393</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>199</v>
+      </c>
+      <c r="N42" t="n">
+        <v>157</v>
+      </c>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>44</v>
+      </c>
+      <c r="R42" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s">
+        <v>394</v>
+      </c>
+      <c r="V42" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z42" t="s"/>
+      <c r="AA42" t="s"/>
+      <c r="AB42" t="s"/>
+      <c r="AC42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>395</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1.19006353778539e+18</v>
+      </c>
+      <c r="AH42" t="s">
         <v>105</v>
       </c>
-      <c r="AD30" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF30" t="s"/>
-      <c r="AG30" t="n">
-        <v>1.19008199146464e+18</v>
-      </c>
-      <c r="AH30" t="s">
+      <c r="AI42" t="s"/>
+    </row>
+    <row r="43" spans="1:35">
+      <c r="A43" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>396</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
+        <v>397</v>
+      </c>
+      <c r="G43" t="s">
+        <v>398</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>399</v>
+      </c>
+      <c r="J43" t="s">
+        <v>400</v>
+      </c>
+      <c r="K43" t="s">
+        <v>401</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>102</v>
+      </c>
+      <c r="N43" t="n">
+        <v>426</v>
+      </c>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s">
+        <v>44</v>
+      </c>
+      <c r="R43" t="s">
+        <v>45</v>
+      </c>
+      <c r="S43" t="s">
+        <v>307</v>
+      </c>
+      <c r="T43" t="s">
+        <v>308</v>
+      </c>
+      <c r="U43" t="s">
+        <v>309</v>
+      </c>
+      <c r="V43" t="s">
+        <v>46</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z43" t="s"/>
+      <c r="AA43" t="s"/>
+      <c r="AB43" t="s"/>
+      <c r="AC43" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE43" t="s"/>
+      <c r="AF43" t="s">
+        <v>406</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.19007535457413e+18</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI43" t="s"/>
+    </row>
+    <row r="44" spans="1:35">
+      <c r="A44" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>407</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>408</v>
+      </c>
+      <c r="G44" t="s">
+        <v>409</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>410</v>
+      </c>
+      <c r="J44" t="s">
+        <v>411</v>
+      </c>
+      <c r="K44" t="s">
+        <v>412</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>89</v>
+      </c>
+      <c r="N44" t="n">
+        <v>673</v>
+      </c>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>44</v>
+      </c>
+      <c r="R44" t="s">
+        <v>45</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V44" t="s">
+        <v>46</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+      <c r="Z44" t="s"/>
+      <c r="AA44" t="s"/>
+      <c r="AB44" t="s"/>
+      <c r="AC44" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF44" t="s"/>
+      <c r="AG44" t="n">
+        <v>1.19006230426154e+18</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI44" t="s"/>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="A45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>415</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>416</v>
+      </c>
+      <c r="G45" t="s">
+        <v>417</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>418</v>
+      </c>
+      <c r="J45" t="s">
+        <v>419</v>
+      </c>
+      <c r="K45" t="s">
+        <v>420</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>22</v>
+      </c>
+      <c r="N45" t="n">
+        <v>193</v>
+      </c>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s">
+        <v>44</v>
+      </c>
+      <c r="R45" t="s">
+        <v>45</v>
+      </c>
+      <c r="S45" t="s">
+        <v>132</v>
+      </c>
+      <c r="T45" t="s">
+        <v>421</v>
+      </c>
+      <c r="U45" t="s">
+        <v>421</v>
+      </c>
+      <c r="V45" t="s">
+        <v>46</v>
+      </c>
+      <c r="W45" t="s">
+        <v>295</v>
+      </c>
+      <c r="X45" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z45" t="s"/>
+      <c r="AA45" t="s"/>
+      <c r="AB45" t="s"/>
+      <c r="AC45" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1.19011599411672e+18</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
